--- a/clean_data.xlsx
+++ b/clean_data.xlsx
@@ -462,11 +462,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -480,11 +476,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -498,11 +490,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -516,11 +504,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -534,11 +518,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -552,11 +532,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -570,11 +546,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -588,11 +560,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -606,11 +574,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -624,11 +588,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -642,11 +602,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -660,11 +616,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -678,11 +630,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -696,11 +644,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -714,11 +658,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -732,11 +672,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -750,11 +686,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Professor Coordenador Principal</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -768,11 +700,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -786,11 +714,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prof. Coordenador c/ Agreg. </t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -804,11 +728,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -822,11 +742,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -840,11 +756,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -858,11 +770,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -876,11 +784,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -894,11 +798,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -912,11 +812,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -930,11 +826,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -948,11 +840,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -966,11 +854,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -984,11 +868,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1002,11 +882,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1020,11 +896,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -1038,11 +910,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Professor Coordenador Principal</t>
-        </is>
-      </c>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -1056,11 +924,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1074,11 +938,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1092,11 +952,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1110,11 +966,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1128,11 +980,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -1146,11 +994,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -1164,11 +1008,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1182,11 +1022,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1200,11 +1036,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1218,11 +1050,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1236,11 +1064,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -1254,11 +1078,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1272,11 +1092,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -1290,11 +1106,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -1308,11 +1120,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1326,11 +1134,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1344,11 +1148,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1362,11 +1162,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1380,11 +1176,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -1398,11 +1190,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -1416,11 +1204,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -1434,11 +1218,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1452,11 +1232,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1470,11 +1246,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -1488,11 +1260,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -1506,11 +1274,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1524,11 +1288,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1542,11 +1302,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1560,11 +1316,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1578,11 +1330,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1598,7 +1346,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Assistente do 2.º Triénio</t>
+          <t>Assistente do 2. Trienio</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1614,11 +1362,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -1632,11 +1376,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -1650,11 +1390,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -1668,11 +1404,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1686,11 +1418,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
           <t>DF</t>
@@ -1704,11 +1432,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1722,11 +1446,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
           <t>DF</t>
@@ -1740,11 +1460,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prof. Coordenador c/ Agreg. </t>
-        </is>
-      </c>
+      <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
           <t>DF</t>
@@ -1758,11 +1474,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1776,11 +1488,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1794,11 +1502,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -1812,11 +1516,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -1830,11 +1530,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -1848,11 +1544,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -1866,11 +1558,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1884,11 +1572,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1902,11 +1586,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -1920,11 +1600,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -1938,11 +1614,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -1956,11 +1628,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1974,11 +1642,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1992,11 +1656,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2010,11 +1670,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
           <t>DF</t>
@@ -2028,11 +1684,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -2046,11 +1698,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
           <t>DF</t>
@@ -2064,11 +1712,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -2082,11 +1726,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -2100,11 +1740,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr">
         <is>
           <t>DM</t>
@@ -2118,11 +1754,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr">
         <is>
           <t>DM</t>
@@ -2136,11 +1768,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -2154,11 +1782,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -2172,11 +1796,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -2190,11 +1810,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -2208,11 +1824,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -2226,11 +1838,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -2244,11 +1852,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2262,11 +1866,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -2282,7 +1882,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Assistente do 2.º Triénio</t>
+          <t>Assistente do 2. Trienio</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2298,11 +1898,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -2316,11 +1912,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Professor Coordenador Principal</t>
-        </is>
-      </c>
+      <c r="A105" t="inlineStr"/>
       <c r="B105" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -2334,11 +1926,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A106" t="inlineStr"/>
       <c r="B106" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -2352,11 +1940,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -2370,11 +1954,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -2388,11 +1968,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A109" t="inlineStr"/>
       <c r="B109" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2406,11 +1982,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2424,11 +1996,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -2442,11 +2010,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -2460,11 +2024,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2478,11 +2038,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A114" t="inlineStr"/>
       <c r="B114" t="inlineStr">
         <is>
           <t>DM</t>
@@ -2496,11 +2052,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -2514,11 +2066,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -2532,11 +2080,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -2550,11 +2094,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2568,11 +2108,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2586,11 +2122,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2604,11 +2136,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2622,11 +2150,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2640,11 +2164,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Assistente</t>
-        </is>
-      </c>
+      <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -2658,11 +2178,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A124" t="inlineStr"/>
       <c r="B124" t="inlineStr">
         <is>
           <t>DF</t>
@@ -2676,11 +2192,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2694,11 +2206,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2712,11 +2220,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -2730,11 +2234,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2748,11 +2248,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -2766,11 +2262,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -2784,11 +2276,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr">
         <is>
           <t>DF</t>
@@ -2802,11 +2290,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A132" t="inlineStr"/>
       <c r="B132" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -2820,11 +2304,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -2838,11 +2318,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -2856,11 +2332,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -2874,11 +2346,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -2892,11 +2360,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A137" t="inlineStr"/>
       <c r="B137" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2910,11 +2374,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A138" t="inlineStr"/>
       <c r="B138" t="inlineStr">
         <is>
           <t>DM</t>
@@ -2928,11 +2388,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A139" t="inlineStr"/>
       <c r="B139" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2946,11 +2402,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A140" t="inlineStr"/>
       <c r="B140" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -2964,11 +2416,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A141" t="inlineStr"/>
       <c r="B141" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -2982,11 +2430,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A142" t="inlineStr"/>
       <c r="B142" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3000,11 +2444,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3018,11 +2458,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A144" t="inlineStr"/>
       <c r="B144" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3036,11 +2472,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3054,11 +2486,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A146" t="inlineStr"/>
       <c r="B146" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -3072,11 +2500,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A147" t="inlineStr"/>
       <c r="B147" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -3090,11 +2514,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A148" t="inlineStr"/>
       <c r="B148" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3108,11 +2528,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prof. Coordenador c/ Agreg. </t>
-        </is>
-      </c>
+      <c r="A149" t="inlineStr"/>
       <c r="B149" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -3126,11 +2542,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A150" t="inlineStr"/>
       <c r="B150" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -3144,11 +2556,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A151" t="inlineStr"/>
       <c r="B151" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -3162,11 +2570,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A152" t="inlineStr"/>
       <c r="B152" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -3180,11 +2584,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -3198,11 +2598,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A154" t="inlineStr"/>
       <c r="B154" t="inlineStr">
         <is>
           <t>DF</t>
@@ -3216,11 +2612,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A155" t="inlineStr"/>
       <c r="B155" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3234,11 +2626,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A156" t="inlineStr"/>
       <c r="B156" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3252,11 +2640,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -3270,11 +2654,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A158" t="inlineStr"/>
       <c r="B158" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -3288,11 +2668,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr">
         <is>
           <t>DF</t>
@@ -3306,11 +2682,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A160" t="inlineStr"/>
       <c r="B160" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3324,11 +2696,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A161" t="inlineStr"/>
       <c r="B161" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3342,11 +2710,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A162" t="inlineStr"/>
       <c r="B162" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3360,11 +2724,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A163" t="inlineStr"/>
       <c r="B163" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3378,11 +2738,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A164" t="inlineStr"/>
       <c r="B164" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3396,11 +2752,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3414,11 +2766,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A166" t="inlineStr"/>
       <c r="B166" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3432,11 +2780,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A167" t="inlineStr"/>
       <c r="B167" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3450,11 +2794,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A168" t="inlineStr"/>
       <c r="B168" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3468,11 +2808,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prof. Coordenador c/ Agreg. </t>
-        </is>
-      </c>
+      <c r="A169" t="inlineStr"/>
       <c r="B169" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3486,11 +2822,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A170" t="inlineStr"/>
       <c r="B170" t="inlineStr">
         <is>
           <t>DF</t>
@@ -3504,11 +2836,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A171" t="inlineStr"/>
       <c r="B171" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3522,11 +2850,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A172" t="inlineStr"/>
       <c r="B172" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3540,11 +2864,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A173" t="inlineStr"/>
       <c r="B173" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3558,11 +2878,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A174" t="inlineStr"/>
       <c r="B174" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3576,11 +2892,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A175" t="inlineStr"/>
       <c r="B175" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3594,11 +2906,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A176" t="inlineStr"/>
       <c r="B176" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3612,11 +2920,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A177" t="inlineStr"/>
       <c r="B177" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -3630,11 +2934,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A178" t="inlineStr"/>
       <c r="B178" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -3648,11 +2948,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A179" t="inlineStr"/>
       <c r="B179" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3666,11 +2962,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A180" t="inlineStr"/>
       <c r="B180" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -3684,11 +2976,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A181" t="inlineStr"/>
       <c r="B181" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -3702,11 +2990,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A182" t="inlineStr"/>
       <c r="B182" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -3720,11 +3004,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A183" t="inlineStr"/>
       <c r="B183" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3738,11 +3018,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A184" t="inlineStr"/>
       <c r="B184" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -3756,11 +3032,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A185" t="inlineStr"/>
       <c r="B185" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3774,11 +3046,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A186" t="inlineStr"/>
       <c r="B186" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3792,11 +3060,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A187" t="inlineStr"/>
       <c r="B187" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -3810,11 +3074,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A188" t="inlineStr"/>
       <c r="B188" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3828,11 +3088,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A189" t="inlineStr"/>
       <c r="B189" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -3846,11 +3102,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A190" t="inlineStr"/>
       <c r="B190" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3864,11 +3116,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A191" t="inlineStr"/>
       <c r="B191" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3882,11 +3130,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A192" t="inlineStr"/>
       <c r="B192" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3900,11 +3144,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A193" t="inlineStr"/>
       <c r="B193" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3918,11 +3158,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A194" t="inlineStr"/>
       <c r="B194" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3936,11 +3172,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A195" t="inlineStr"/>
       <c r="B195" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -3954,11 +3186,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A196" t="inlineStr"/>
       <c r="B196" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3972,11 +3200,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A197" t="inlineStr"/>
       <c r="B197" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -3990,11 +3214,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A198" t="inlineStr"/>
       <c r="B198" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4008,11 +3228,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A199" t="inlineStr"/>
       <c r="B199" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -4026,11 +3242,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A200" t="inlineStr"/>
       <c r="B200" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4046,7 +3258,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Equiparado Assistente 2º Triénio</t>
+          <t>Equiparado Assistente 2. Trienio</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4062,11 +3274,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A202" t="inlineStr"/>
       <c r="B202" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4080,11 +3288,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A203" t="inlineStr"/>
       <c r="B203" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -4098,11 +3302,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A204" t="inlineStr"/>
       <c r="B204" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -4116,11 +3316,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A205" t="inlineStr"/>
       <c r="B205" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -4134,11 +3330,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A206" t="inlineStr"/>
       <c r="B206" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -4152,11 +3344,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A207" t="inlineStr"/>
       <c r="B207" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -4170,11 +3358,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A208" t="inlineStr"/>
       <c r="B208" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -4188,11 +3372,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A209" t="inlineStr"/>
       <c r="B209" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -4206,11 +3386,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prof. Coordenador c/ Agreg. </t>
-        </is>
-      </c>
+      <c r="A210" t="inlineStr"/>
       <c r="B210" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4224,11 +3400,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A211" t="inlineStr"/>
       <c r="B211" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4242,11 +3414,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A212" t="inlineStr"/>
       <c r="B212" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4260,11 +3428,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A213" t="inlineStr"/>
       <c r="B213" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -4278,11 +3442,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A214" t="inlineStr"/>
       <c r="B214" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -4296,11 +3456,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A215" t="inlineStr"/>
       <c r="B215" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -4314,11 +3470,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A216" t="inlineStr"/>
       <c r="B216" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4332,11 +3484,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A217" t="inlineStr"/>
       <c r="B217" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4350,11 +3498,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A218" t="inlineStr"/>
       <c r="B218" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4368,11 +3512,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A219" t="inlineStr"/>
       <c r="B219" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4386,11 +3526,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A220" t="inlineStr"/>
       <c r="B220" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4404,11 +3540,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A221" t="inlineStr"/>
       <c r="B221" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -4422,11 +3554,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A222" t="inlineStr"/>
       <c r="B222" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -4440,11 +3568,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A223" t="inlineStr"/>
       <c r="B223" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4458,11 +3582,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A224" t="inlineStr"/>
       <c r="B224" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -4476,11 +3596,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A225" t="inlineStr"/>
       <c r="B225" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4494,11 +3610,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Assistente</t>
-        </is>
-      </c>
+      <c r="A226" t="inlineStr"/>
       <c r="B226" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -4512,11 +3624,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A227" t="inlineStr"/>
       <c r="B227" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -4530,11 +3638,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A228" t="inlineStr"/>
       <c r="B228" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4548,11 +3652,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A229" t="inlineStr"/>
       <c r="B229" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4566,11 +3666,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A230" t="inlineStr"/>
       <c r="B230" t="inlineStr">
         <is>
           <t>DF</t>
@@ -4584,11 +3680,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A231" t="inlineStr"/>
       <c r="B231" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -4602,11 +3694,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A232" t="inlineStr"/>
       <c r="B232" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -4620,11 +3708,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A233" t="inlineStr"/>
       <c r="B233" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -4638,11 +3722,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A234" t="inlineStr"/>
       <c r="B234" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4656,11 +3736,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A235" t="inlineStr"/>
       <c r="B235" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4674,11 +3750,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prof. Coordenador c/ Agreg. </t>
-        </is>
-      </c>
+      <c r="A236" t="inlineStr"/>
       <c r="B236" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -4692,11 +3764,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A237" t="inlineStr"/>
       <c r="B237" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4710,11 +3778,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A238" t="inlineStr"/>
       <c r="B238" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4728,11 +3792,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A239" t="inlineStr"/>
       <c r="B239" t="inlineStr">
         <is>
           <t>DF</t>
@@ -4746,11 +3806,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A240" t="inlineStr"/>
       <c r="B240" t="inlineStr">
         <is>
           <t>DF</t>
@@ -4764,11 +3820,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A241" t="inlineStr"/>
       <c r="B241" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4782,11 +3834,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A242" t="inlineStr"/>
       <c r="B242" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4800,11 +3848,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A243" t="inlineStr"/>
       <c r="B243" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4818,11 +3862,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A244" t="inlineStr"/>
       <c r="B244" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4836,11 +3876,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A245" t="inlineStr"/>
       <c r="B245" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4854,11 +3890,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A246" t="inlineStr"/>
       <c r="B246" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4872,11 +3904,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A247" t="inlineStr"/>
       <c r="B247" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4890,11 +3918,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A248" t="inlineStr"/>
       <c r="B248" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4908,11 +3932,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A249" t="inlineStr"/>
       <c r="B249" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4926,11 +3946,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A250" t="inlineStr"/>
       <c r="B250" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4944,11 +3960,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A251" t="inlineStr"/>
       <c r="B251" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4962,11 +3974,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A252" t="inlineStr"/>
       <c r="B252" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -4980,11 +3988,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A253" t="inlineStr"/>
       <c r="B253" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4998,11 +4002,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A254" t="inlineStr"/>
       <c r="B254" t="inlineStr">
         <is>
           <t>DF</t>
@@ -5016,11 +4016,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A255" t="inlineStr"/>
       <c r="B255" t="inlineStr">
         <is>
           <t>DM</t>
@@ -5034,11 +4030,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A256" t="inlineStr"/>
       <c r="B256" t="inlineStr">
         <is>
           <t>DM</t>
@@ -5052,11 +4044,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A257" t="inlineStr"/>
       <c r="B257" t="inlineStr">
         <is>
           <t>DM</t>
@@ -5070,11 +4058,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A258" t="inlineStr"/>
       <c r="B258" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5088,11 +4072,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A259" t="inlineStr"/>
       <c r="B259" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5106,11 +4086,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A260" t="inlineStr"/>
       <c r="B260" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -5124,11 +4100,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A261" t="inlineStr"/>
       <c r="B261" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5142,11 +4114,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A262" t="inlineStr"/>
       <c r="B262" t="inlineStr">
         <is>
           <t>DM</t>
@@ -5160,11 +4128,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A263" t="inlineStr"/>
       <c r="B263" t="inlineStr">
         <is>
           <t>DM</t>
@@ -5178,11 +4142,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A264" t="inlineStr"/>
       <c r="B264" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -5196,11 +4156,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A265" t="inlineStr"/>
       <c r="B265" t="inlineStr">
         <is>
           <t>DM</t>
@@ -5214,11 +4170,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A266" t="inlineStr"/>
       <c r="B266" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5232,11 +4184,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A267" t="inlineStr"/>
       <c r="B267" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5250,11 +4198,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A268" t="inlineStr"/>
       <c r="B268" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5268,11 +4212,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A269" t="inlineStr"/>
       <c r="B269" t="inlineStr">
         <is>
           <t>DM</t>
@@ -5286,11 +4226,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A270" t="inlineStr"/>
       <c r="B270" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5304,11 +4240,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A271" t="inlineStr"/>
       <c r="B271" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5322,11 +4254,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A272" t="inlineStr"/>
       <c r="B272" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5340,11 +4268,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A273" t="inlineStr"/>
       <c r="B273" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5358,11 +4282,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A274" t="inlineStr"/>
       <c r="B274" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5376,11 +4296,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A275" t="inlineStr"/>
       <c r="B275" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -5394,11 +4310,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A276" t="inlineStr"/>
       <c r="B276" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -5412,11 +4324,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A277" t="inlineStr"/>
       <c r="B277" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -5430,11 +4338,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prof. Coordenador c/ Agreg. </t>
-        </is>
-      </c>
+      <c r="A278" t="inlineStr"/>
       <c r="B278" t="inlineStr">
         <is>
           <t>DF</t>
@@ -5448,11 +4352,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A279" t="inlineStr"/>
       <c r="B279" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -5466,11 +4366,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A280" t="inlineStr"/>
       <c r="B280" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -5484,11 +4380,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A281" t="inlineStr"/>
       <c r="B281" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5502,11 +4394,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A282" t="inlineStr"/>
       <c r="B282" t="inlineStr">
         <is>
           <t>DF</t>
@@ -5520,11 +4408,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A283" t="inlineStr"/>
       <c r="B283" t="inlineStr">
         <is>
           <t>DF</t>
@@ -5538,11 +4422,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A284" t="inlineStr"/>
       <c r="B284" t="inlineStr">
         <is>
           <t>DM</t>
@@ -5556,11 +4436,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A285" t="inlineStr"/>
       <c r="B285" t="inlineStr">
         <is>
           <t>DF</t>
@@ -5574,11 +4450,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A286" t="inlineStr"/>
       <c r="B286" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5592,11 +4464,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A287" t="inlineStr"/>
       <c r="B287" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5610,11 +4478,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prof. Coordenador c/ Agreg. </t>
-        </is>
-      </c>
+      <c r="A288" t="inlineStr"/>
       <c r="B288" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5628,11 +4492,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A289" t="inlineStr"/>
       <c r="B289" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5646,11 +4506,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A290" t="inlineStr"/>
       <c r="B290" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5664,11 +4520,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A291" t="inlineStr"/>
       <c r="B291" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5682,11 +4534,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A292" t="inlineStr"/>
       <c r="B292" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5700,11 +4548,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A293" t="inlineStr"/>
       <c r="B293" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5718,11 +4562,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A294" t="inlineStr"/>
       <c r="B294" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5736,11 +4576,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A295" t="inlineStr"/>
       <c r="B295" t="inlineStr">
         <is>
           <t>DF</t>
@@ -5754,11 +4590,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A296" t="inlineStr"/>
       <c r="B296" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5772,11 +4604,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Prof. Coordenador</t>
-        </is>
-      </c>
+      <c r="A297" t="inlineStr"/>
       <c r="B297" t="inlineStr">
         <is>
           <t>DM</t>
@@ -5790,11 +4618,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A298" t="inlineStr"/>
       <c r="B298" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5808,11 +4632,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A299" t="inlineStr"/>
       <c r="B299" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -5826,11 +4646,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A300" t="inlineStr"/>
       <c r="B300" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5844,11 +4660,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A301" t="inlineStr"/>
       <c r="B301" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -5862,11 +4674,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A302" t="inlineStr"/>
       <c r="B302" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5880,11 +4688,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A303" t="inlineStr"/>
       <c r="B303" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5898,11 +4702,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A304" t="inlineStr"/>
       <c r="B304" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5916,11 +4716,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A305" t="inlineStr"/>
       <c r="B305" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5934,11 +4730,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A306" t="inlineStr"/>
       <c r="B306" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5952,11 +4744,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A307" t="inlineStr"/>
       <c r="B307" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5970,11 +4758,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A308" t="inlineStr"/>
       <c r="B308" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5988,11 +4772,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A309" t="inlineStr"/>
       <c r="B309" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -6006,11 +4786,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A310" t="inlineStr"/>
       <c r="B310" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -6024,11 +4800,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A311" t="inlineStr"/>
       <c r="B311" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -6042,11 +4814,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A312" t="inlineStr"/>
       <c r="B312" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -6060,11 +4828,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A313" t="inlineStr"/>
       <c r="B313" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -6078,11 +4842,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A314" t="inlineStr"/>
       <c r="B314" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -6096,11 +4856,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
+      <c r="A315" t="inlineStr"/>
       <c r="B315" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -6114,11 +4870,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
+      <c r="A316" t="inlineStr"/>
       <c r="B316" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -6132,11 +4884,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A317" t="inlineStr"/>
       <c r="B317" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -6150,11 +4898,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A318" t="inlineStr"/>
       <c r="B318" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -6168,11 +4912,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
+      <c r="A319" t="inlineStr"/>
       <c r="B319" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -6186,11 +4926,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A320" t="inlineStr"/>
       <c r="B320" t="inlineStr">
         <is>
           <t>DM</t>
@@ -6204,11 +4940,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A321" t="inlineStr"/>
       <c r="B321" t="inlineStr">
         <is>
           <t>DM</t>
@@ -6222,11 +4954,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A322" t="inlineStr"/>
       <c r="B322" t="inlineStr">
         <is>
           <t>DM</t>
@@ -6240,11 +4968,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A323" t="inlineStr"/>
       <c r="B323" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -6258,11 +4982,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A324" t="inlineStr"/>
       <c r="B324" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -6276,11 +4996,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
+      <c r="A325" t="inlineStr"/>
       <c r="B325" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -6294,11 +5010,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
+      <c r="A326" t="inlineStr"/>
       <c r="B326" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -6312,11 +5024,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A327" t="inlineStr"/>
       <c r="B327" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -6330,11 +5038,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
+      <c r="A328" t="inlineStr"/>
       <c r="B328" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -6348,11 +5052,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A329" t="inlineStr"/>
       <c r="B329" t="inlineStr">
         <is>
           <t>DM</t>
@@ -6366,11 +5066,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A330" t="inlineStr"/>
       <c r="B330" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -6384,11 +5080,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A331" t="inlineStr"/>
       <c r="B331" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -6402,11 +5094,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A332" t="inlineStr"/>
       <c r="B332" t="inlineStr">
         <is>
           <t>DM</t>
@@ -6420,11 +5108,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A333" t="inlineStr"/>
       <c r="B333" t="inlineStr">
         <is>
           <t>DM</t>
@@ -6438,11 +5122,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A334" t="inlineStr"/>
       <c r="B334" t="inlineStr">
         <is>
           <t>DM</t>
@@ -6456,11 +5136,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
+      <c r="A335" t="inlineStr"/>
       <c r="B335" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -6474,11 +5150,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
+      <c r="A336" t="inlineStr"/>
       <c r="B336" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -6492,11 +5164,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A337" t="inlineStr"/>
       <c r="B337" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -6510,11 +5178,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A338" t="inlineStr"/>
       <c r="B338" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -6528,11 +5192,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
+      <c r="A339" t="inlineStr"/>
       <c r="B339" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -6546,11 +5206,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
+      <c r="A340" t="inlineStr"/>
       <c r="B340" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -6564,11 +5220,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A341" t="inlineStr"/>
       <c r="B341" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -6582,11 +5234,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A342" t="inlineStr"/>
       <c r="B342" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -6600,11 +5248,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>Professor Adjunto</t>
-        </is>
-      </c>
+      <c r="A343" t="inlineStr"/>
       <c r="B343" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -6618,11 +5262,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A344" t="inlineStr"/>
       <c r="B344" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -6636,11 +5276,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A345" t="inlineStr"/>
       <c r="B345" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -6654,11 +5290,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A346" t="inlineStr"/>
       <c r="B346" t="inlineStr">
         <is>
           <t>DM</t>
@@ -6672,11 +5304,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A347" t="inlineStr"/>
       <c r="B347" t="inlineStr">
         <is>
           <t>DM</t>
@@ -6690,11 +5318,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A348" t="inlineStr"/>
       <c r="B348" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -6708,11 +5332,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A349" t="inlineStr"/>
       <c r="B349" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -6726,11 +5346,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A350" t="inlineStr"/>
       <c r="B350" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -6744,11 +5360,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A351" t="inlineStr"/>
       <c r="B351" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -6762,11 +5374,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>Assistente Convidado</t>
-        </is>
-      </c>
+      <c r="A352" t="inlineStr"/>
       <c r="B352" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -6780,11 +5388,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>Professor Adjunto Convidado</t>
-        </is>
-      </c>
+      <c r="A353" t="inlineStr"/>
       <c r="B353" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -6798,11 +5402,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
+      <c r="A354" t="inlineStr"/>
       <c r="B354" t="inlineStr">
         <is>
           <t>DEETC</t>

--- a/clean_data.xlsx
+++ b/clean_data.xlsx
@@ -462,7 +462,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -476,7 +480,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -490,7 +498,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -504,7 +516,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -518,7 +534,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -532,7 +552,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -546,7 +570,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -560,7 +588,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -574,7 +606,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -588,7 +624,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -602,7 +642,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -616,7 +660,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -630,7 +678,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -644,7 +696,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -658,7 +714,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -672,7 +732,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -686,7 +750,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Professor Coordenador Principal</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -700,7 +768,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -714,7 +786,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prof. Coordenador c/ Agreg. </t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -728,7 +804,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -742,7 +822,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -756,7 +840,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -770,7 +858,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -784,7 +876,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -798,7 +894,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -812,7 +912,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -826,7 +930,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -840,7 +948,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -854,7 +966,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -868,7 +984,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -882,7 +1002,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -896,7 +1020,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -910,7 +1038,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Professor Coordenador Principal</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -924,7 +1056,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -938,7 +1074,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -952,7 +1092,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -966,7 +1110,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -980,7 +1128,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -994,7 +1146,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -1008,7 +1164,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1022,7 +1182,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1036,7 +1200,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1050,7 +1218,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1064,7 +1236,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -1078,7 +1254,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1092,7 +1272,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -1106,7 +1290,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -1120,7 +1308,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1134,7 +1326,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1148,7 +1344,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1162,7 +1362,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1176,7 +1380,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -1190,7 +1398,11 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -1204,7 +1416,11 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -1218,7 +1434,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1232,7 +1452,11 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1246,7 +1470,11 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -1260,7 +1488,11 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -1274,7 +1506,11 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1288,7 +1524,11 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1302,7 +1542,11 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1316,7 +1560,11 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1330,7 +1578,11 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1362,7 +1614,11 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr"/>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -1376,7 +1632,11 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr"/>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -1390,7 +1650,11 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr"/>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -1404,7 +1668,11 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1418,7 +1686,11 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>DF</t>
@@ -1432,7 +1704,11 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr"/>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1446,7 +1722,11 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>DF</t>
@@ -1460,7 +1740,11 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prof. Coordenador c/ Agreg. </t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>DF</t>
@@ -1474,7 +1758,11 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr"/>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1488,7 +1776,11 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr"/>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1502,7 +1794,11 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr"/>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -1516,7 +1812,11 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr"/>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -1530,7 +1830,11 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr"/>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -1544,7 +1848,11 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr"/>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -1558,7 +1866,11 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr"/>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1572,7 +1884,11 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr"/>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1586,7 +1902,11 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr"/>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -1600,7 +1920,11 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr"/>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -1614,7 +1938,11 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr"/>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -1628,7 +1956,11 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr"/>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1642,7 +1974,11 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr"/>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1656,7 +1992,11 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr"/>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1670,7 +2010,11 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr"/>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>DF</t>
@@ -1684,7 +2028,11 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr"/>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -1698,7 +2046,11 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>DF</t>
@@ -1712,7 +2064,11 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr"/>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -1726,7 +2082,11 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr"/>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1740,7 +2100,11 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr"/>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>DM</t>
@@ -1754,7 +2118,11 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr"/>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>DM</t>
@@ -1768,7 +2136,11 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr"/>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -1782,7 +2154,11 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr"/>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -1796,7 +2172,11 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr"/>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1810,7 +2190,11 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr"/>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -1824,7 +2208,11 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr"/>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1838,7 +2226,11 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr"/>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -1852,7 +2244,11 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr"/>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1866,7 +2262,11 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr"/>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1898,7 +2298,11 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr"/>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -1912,7 +2316,11 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr"/>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Professor Coordenador Principal</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1926,7 +2334,11 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr"/>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -1940,7 +2352,11 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr"/>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -1954,7 +2370,11 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr"/>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -1968,7 +2388,11 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr"/>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1982,7 +2406,11 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr"/>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -1996,7 +2424,11 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr"/>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -2010,7 +2442,11 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr"/>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -2024,7 +2460,11 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr"/>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2038,7 +2478,11 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr"/>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>DM</t>
@@ -2052,7 +2496,11 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr"/>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -2066,7 +2514,11 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr"/>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -2080,7 +2532,11 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr"/>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -2094,7 +2550,11 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr"/>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2108,7 +2568,11 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr"/>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2122,7 +2586,11 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr"/>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2136,7 +2604,11 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr"/>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2150,7 +2622,11 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr"/>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2164,7 +2640,11 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr"/>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Assistente</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -2178,7 +2658,11 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr"/>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>DF</t>
@@ -2192,7 +2676,11 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr"/>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2206,7 +2694,11 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr"/>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2220,7 +2712,11 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr"/>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -2234,7 +2730,11 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr"/>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2248,7 +2748,11 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr"/>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -2262,7 +2766,11 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr"/>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -2276,7 +2784,11 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr"/>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>DF</t>
@@ -2290,7 +2802,11 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr"/>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -2304,7 +2820,11 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr"/>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -2318,7 +2838,11 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr"/>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -2332,7 +2856,11 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr"/>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -2346,7 +2874,11 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr"/>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -2360,7 +2892,11 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr"/>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2374,7 +2910,11 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr"/>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>DM</t>
@@ -2388,7 +2928,11 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr"/>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2402,7 +2946,11 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr"/>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -2416,7 +2964,11 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr"/>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -2430,7 +2982,11 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr"/>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2444,7 +3000,11 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr"/>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2458,7 +3018,11 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr"/>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>DM</t>
@@ -2472,7 +3036,11 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr"/>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2486,7 +3054,11 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr"/>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -2500,7 +3072,11 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr"/>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -2514,7 +3090,11 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr"/>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -2528,7 +3108,11 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr"/>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prof. Coordenador c/ Agreg. </t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -2542,7 +3126,11 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr"/>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -2556,7 +3144,11 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr"/>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -2570,7 +3162,11 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr"/>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -2584,7 +3180,11 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr"/>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -2598,7 +3198,11 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr"/>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>DF</t>
@@ -2612,7 +3216,11 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr"/>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -2626,7 +3234,11 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr"/>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2640,7 +3252,11 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr"/>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -2654,7 +3270,11 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr"/>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -2668,7 +3288,11 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr"/>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>DF</t>
@@ -2682,7 +3306,11 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr"/>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2696,7 +3324,11 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr"/>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2710,7 +3342,11 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr"/>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2724,7 +3360,11 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr"/>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2738,7 +3378,11 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr"/>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -2752,7 +3396,11 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr"/>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>DM</t>
@@ -2766,7 +3414,11 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr"/>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2780,7 +3432,11 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr"/>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>DM</t>
@@ -2794,7 +3450,11 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr"/>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>DM</t>
@@ -2808,7 +3468,11 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr"/>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prof. Coordenador c/ Agreg. </t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2822,7 +3486,11 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr"/>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>DF</t>
@@ -2836,7 +3504,11 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr"/>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2850,7 +3522,11 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr"/>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2864,7 +3540,11 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr"/>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>DM</t>
@@ -2878,7 +3558,11 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr"/>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -2892,7 +3576,11 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr"/>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>DM</t>
@@ -2906,7 +3594,11 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr"/>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>DM</t>
@@ -2920,7 +3612,11 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr"/>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -2934,7 +3630,11 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr"/>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -2948,7 +3648,11 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr"/>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>DM</t>
@@ -2962,7 +3666,11 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr"/>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -2976,7 +3684,11 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr"/>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -2990,7 +3702,11 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr"/>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -3004,7 +3720,11 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr"/>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3018,7 +3738,11 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr"/>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -3032,7 +3756,11 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr"/>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3046,7 +3774,11 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr"/>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3060,7 +3792,11 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr"/>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -3074,7 +3810,11 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr"/>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3088,7 +3828,11 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr"/>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -3102,7 +3846,11 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr"/>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3116,7 +3864,11 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr"/>
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3130,7 +3882,11 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr"/>
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3144,7 +3900,11 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr"/>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3158,7 +3918,11 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr"/>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3172,7 +3936,11 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr"/>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -3186,7 +3954,11 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr"/>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3200,7 +3972,11 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr"/>
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -3214,7 +3990,11 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr"/>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3228,7 +4008,11 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr"/>
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3242,7 +4026,11 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr"/>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3274,7 +4062,11 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr"/>
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3288,7 +4080,11 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr"/>
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3302,7 +4098,11 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr"/>
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3316,7 +4116,11 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr"/>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -3330,7 +4134,11 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr"/>
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -3344,7 +4152,11 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr"/>
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -3358,7 +4170,11 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr"/>
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -3372,7 +4188,11 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr"/>
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -3386,7 +4206,11 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr"/>
+      <c r="A210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prof. Coordenador c/ Agreg. </t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3400,7 +4224,11 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr"/>
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -3414,7 +4242,11 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr"/>
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3428,7 +4260,11 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr"/>
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -3442,7 +4278,11 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr"/>
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3456,7 +4296,11 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr"/>
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -3470,7 +4314,11 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr"/>
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3484,7 +4332,11 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr"/>
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3498,7 +4350,11 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr"/>
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3512,7 +4368,11 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr"/>
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3526,7 +4386,11 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr"/>
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3540,7 +4404,11 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr"/>
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3554,7 +4422,11 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr"/>
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -3568,7 +4440,11 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr"/>
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -3582,7 +4458,11 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr"/>
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -3596,7 +4476,11 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr"/>
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3610,7 +4494,11 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr"/>
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Assistente</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -3624,7 +4512,11 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr"/>
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3638,7 +4530,11 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr"/>
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3652,7 +4548,11 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr"/>
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3666,7 +4566,11 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr"/>
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>DF</t>
@@ -3680,7 +4584,11 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr"/>
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3694,7 +4602,11 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr"/>
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3708,7 +4620,11 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr"/>
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -3722,7 +4638,11 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr"/>
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3736,7 +4656,11 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr"/>
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3750,7 +4674,11 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr"/>
+      <c r="A236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prof. Coordenador c/ Agreg. </t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -3764,7 +4692,11 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr"/>
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3778,7 +4710,11 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr"/>
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3792,7 +4728,11 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr"/>
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>DF</t>
@@ -3806,7 +4746,11 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr"/>
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>DF</t>
@@ -3820,7 +4764,11 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr"/>
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3834,7 +4782,11 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr"/>
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3848,7 +4800,11 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr"/>
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3862,7 +4818,11 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr"/>
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3876,7 +4836,11 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr"/>
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3890,7 +4854,11 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr"/>
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3904,7 +4872,11 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr"/>
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3918,7 +4890,11 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr"/>
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3932,7 +4908,11 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr"/>
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3946,7 +4926,11 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr"/>
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -3960,7 +4944,11 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr"/>
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>DM</t>
@@ -3974,7 +4962,11 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr"/>
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -3988,7 +4980,11 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr"/>
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4002,7 +4998,11 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr"/>
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>DF</t>
@@ -4016,7 +5016,11 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr"/>
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4030,7 +5034,11 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr"/>
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4044,7 +5052,11 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr"/>
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4058,7 +5070,11 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr"/>
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4072,7 +5088,11 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr"/>
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4086,7 +5106,11 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr"/>
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -4100,7 +5124,11 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr"/>
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4114,7 +5142,11 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr"/>
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4128,7 +5160,11 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr"/>
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4142,7 +5178,11 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr"/>
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>DEC</t>
@@ -4156,7 +5196,11 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr"/>
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4170,7 +5214,11 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr"/>
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4184,7 +5232,11 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr"/>
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4198,7 +5250,11 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr"/>
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4212,7 +5268,11 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr"/>
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4226,7 +5286,11 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr"/>
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4240,7 +5304,11 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr"/>
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4254,7 +5322,11 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr"/>
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4268,7 +5340,11 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr"/>
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4282,7 +5358,11 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr"/>
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4296,7 +5376,11 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr"/>
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -4310,7 +5394,11 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr"/>
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -4324,7 +5412,11 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr"/>
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -4338,7 +5430,11 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr"/>
+      <c r="A278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prof. Coordenador c/ Agreg. </t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>DF</t>
@@ -4352,7 +5448,11 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr"/>
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -4366,7 +5466,11 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr"/>
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -4380,7 +5484,11 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr"/>
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4394,7 +5502,11 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr"/>
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>DF</t>
@@ -4408,7 +5520,11 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr"/>
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>DF</t>
@@ -4422,7 +5538,11 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr"/>
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4436,7 +5556,11 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr"/>
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>DF</t>
@@ -4450,7 +5574,11 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr"/>
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4464,7 +5592,11 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr"/>
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4478,7 +5610,11 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr"/>
+      <c r="A288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prof. Coordenador c/ Agreg. </t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4492,7 +5628,11 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr"/>
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4506,7 +5646,11 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr"/>
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4520,7 +5664,11 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr"/>
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4534,7 +5682,11 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr"/>
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4548,7 +5700,11 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr"/>
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4562,7 +5718,11 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr"/>
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4576,7 +5736,11 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr"/>
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>DF</t>
@@ -4590,7 +5754,11 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr"/>
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4604,7 +5772,11 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr"/>
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Prof. Coordenador</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4618,7 +5790,11 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr"/>
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4632,7 +5808,11 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr"/>
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -4646,7 +5826,11 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr"/>
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4660,7 +5844,11 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr"/>
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -4674,7 +5862,11 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr"/>
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4688,7 +5880,11 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr"/>
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4702,7 +5898,11 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr"/>
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4716,7 +5916,11 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr"/>
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4730,7 +5934,11 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr"/>
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4744,7 +5952,11 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr"/>
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4758,7 +5970,11 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr"/>
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4772,7 +5988,11 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr"/>
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4786,7 +6006,11 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr"/>
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4800,7 +6024,11 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr"/>
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4814,7 +6042,11 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr"/>
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4828,7 +6060,11 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr"/>
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4842,7 +6078,11 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr"/>
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4856,7 +6096,11 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr"/>
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4870,7 +6114,11 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="inlineStr"/>
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -4884,7 +6132,11 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr"/>
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4898,7 +6150,11 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr"/>
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4912,7 +6168,11 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr"/>
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -4926,7 +6186,11 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr"/>
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4940,7 +6204,11 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr"/>
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4954,7 +6222,11 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="inlineStr"/>
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>DM</t>
@@ -4968,7 +6240,11 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr"/>
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -4982,7 +6258,11 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr"/>
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -4996,7 +6276,11 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr"/>
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5010,7 +6294,11 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr"/>
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5024,7 +6312,11 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr"/>
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5038,7 +6330,11 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr"/>
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5052,7 +6348,11 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr"/>
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>DM</t>
@@ -5066,7 +6366,11 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr"/>
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5080,7 +6384,11 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr"/>
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5094,7 +6402,11 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr"/>
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>DM</t>
@@ -5108,7 +6420,11 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr"/>
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>DM</t>
@@ -5122,7 +6438,11 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr"/>
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>DM</t>
@@ -5136,7 +6456,11 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr"/>
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -5150,7 +6474,11 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr"/>
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -5164,7 +6492,11 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr"/>
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5178,7 +6510,11 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr"/>
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5192,7 +6528,11 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr"/>
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -5206,7 +6546,11 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr"/>
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>DEEEA</t>
@@ -5220,7 +6564,11 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr"/>
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -5234,7 +6582,11 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr"/>
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -5248,7 +6600,11 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr"/>
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Professor Adjunto</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>DEM</t>
@@ -5262,7 +6618,11 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr"/>
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5276,7 +6636,11 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr"/>
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5290,7 +6654,11 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr"/>
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>DM</t>
@@ -5304,7 +6672,11 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr"/>
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>DM</t>
@@ -5318,7 +6690,11 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr"/>
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -5332,7 +6708,11 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr"/>
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>DEQ</t>
@@ -5346,7 +6726,11 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr"/>
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5360,7 +6744,11 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr"/>
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5374,7 +6762,11 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr"/>
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Assistente Convidado</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5388,7 +6780,11 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr"/>
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Professor Adjunto Convidado</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>DEETC</t>
@@ -5402,7 +6798,11 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr"/>
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>DEETC</t>

--- a/clean_data.xlsx
+++ b/clean_data.xlsx
@@ -6959,7 +6959,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>MEBio</t>
+          <t>MEB</t>
         </is>
       </c>
       <c r="B13" t="n">
